--- a/SCRIPT/testinfra_paperSDT.xlsx
+++ b/SCRIPT/testinfra_paperSDT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="462">
   <si>
     <t xml:space="preserve">NB_RUN</t>
   </si>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">C001ab</t>
   </si>
   <si>
-    <t xml:space="preserve">complete TL1 run to generate data for paper. SDT run</t>
+    <t xml:space="preserve">tracking evaluation starting from 7cell stage</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;INIT_FOLDER&gt;</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">C001bb</t>
   </si>
   <si>
-    <t xml:space="preserve">complete TL2 1 SDT main run (full timelapse) for data Paper</t>
+    <t xml:space="preserve">tracking evaluation starting from 26cell stage</t>
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/C001bb/</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">C001eb</t>
   </si>
   <si>
-    <t xml:space="preserve">complete TL6 SDT main run (full timelapse) for data paper (SDT run)</t>
+    <t xml:space="preserve">tracking evaluation starting from 2cell stage</t>
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/C001eb/</t>
@@ -608,9 +608,6 @@
     <t xml:space="preserve">C001ge</t>
   </si>
   <si>
-    <t xml:space="preserve">TL11 Paper SDT scoring</t>
-  </si>
-  <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/C001ge/</t>
   </si>
   <si>
@@ -821,7 +818,7 @@
     <t xml:space="preserve">C001ac</t>
   </si>
   <si>
-    <t xml:space="preserve">complete TL1 run to generate data for paper. SDT run (SEG score)</t>
+    <t xml:space="preserve">segmentation evaluation 7cell stage rep1</t>
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/C001ac/</t>
@@ -965,7 +962,7 @@
     <t xml:space="preserve">C001bc</t>
   </si>
   <si>
-    <t xml:space="preserve">complete TL2 1 SDT main run for data Paper (SEG)</t>
+    <t xml:space="preserve">segmentation evaluation 26cell stage rep1</t>
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/C001bc/</t>
@@ -1097,7 +1094,7 @@
     <t xml:space="preserve">C001ec</t>
   </si>
   <si>
-    <t xml:space="preserve">complete TL6 run  1 stack (SEG)</t>
+    <t xml:space="preserve">segmentation evaluation 2cell stage rep1</t>
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/C001ec/</t>
@@ -1121,7 +1118,7 @@
     <t xml:space="preserve">C001ec_2</t>
   </si>
   <si>
-    <t xml:space="preserve">second replicate 2 cell stage (SEG) (extra data by Francesca)</t>
+    <t xml:space="preserve">second replicate 2 cell stage (SEG) </t>
   </si>
   <si>
     <t xml:space="preserve">SEGinit;C001ec</t>
@@ -1148,7 +1145,7 @@
     <t xml:space="preserve">C001ec_3</t>
   </si>
   <si>
-    <t xml:space="preserve">third replicate 2 cell stage (SEG) (extra data by Francesca)</t>
+    <t xml:space="preserve">third replicate 2 cell stage (SEG) </t>
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/C001ec_3/</t>
@@ -1876,9 +1873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>476280</xdr:colOff>
+      <xdr:colOff>475560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1888,7 +1885,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10010160" cy="9486720"/>
+          <a:ext cx="10009440" cy="9486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,9 +1923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1938,7 +1935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="8856720"/>
+          <a:ext cx="9761400" cy="8856000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1971,9 +1968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1983,7 +1980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="8856720"/>
+          <a:ext cx="9761400" cy="8856000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2016,9 +2013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2028,7 +2025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="8856720"/>
+          <a:ext cx="9761400" cy="8856000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2066,9 +2063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2078,7 +2075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6819840"/>
+          <a:ext cx="9761040" cy="6819120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2116,9 +2113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2128,7 +2125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6981120"/>
+          <a:ext cx="9761040" cy="6980400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2166,9 +2163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2178,7 +2175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="2195280"/>
+          <a:ext cx="9761040" cy="2194560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2216,9 +2213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2228,7 +2225,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6820560"/>
+          <a:ext cx="9761040" cy="6819840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2266,9 +2263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2278,7 +2275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="7144920"/>
+          <a:ext cx="9761040" cy="7144200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2316,9 +2313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2328,7 +2325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8369280"/>
+          <a:ext cx="9761040" cy="8368560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2366,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2378,7 +2375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6820920"/>
+          <a:ext cx="9761040" cy="6820200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2416,9 +2413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2428,7 +2425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6663960"/>
+          <a:ext cx="9761040" cy="6663240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,9 +2463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2478,7 +2475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="2383920"/>
+          <a:ext cx="9761040" cy="2383200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,9 +2508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2523,7 +2520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="2383920"/>
+          <a:ext cx="9761040" cy="2383200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2556,9 +2553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2568,7 +2565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="2383920"/>
+          <a:ext cx="9761040" cy="2383200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2601,9 +2598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2613,7 +2610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="2383920"/>
+          <a:ext cx="9761040" cy="2383200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,9 +2643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2658,7 +2655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="2383920"/>
+          <a:ext cx="9761040" cy="2383200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,9 +2693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2708,7 +2705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035720" cy="7318440"/>
+          <a:ext cx="10035000" cy="7317720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2741,9 +2738,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2753,7 +2750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035720" cy="7318440"/>
+          <a:ext cx="10035000" cy="7317720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2786,9 +2783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2798,7 +2795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035720" cy="7318440"/>
+          <a:ext cx="10035000" cy="7317720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2836,9 +2833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2848,7 +2845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="7307280"/>
+          <a:ext cx="9761040" cy="7306560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2886,9 +2883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2898,7 +2895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="7882560"/>
+          <a:ext cx="9761040" cy="7881840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2931,9 +2928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2943,7 +2940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="7882560"/>
+          <a:ext cx="9761040" cy="7881840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,9 +2978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2993,7 +2990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8233920"/>
+          <a:ext cx="9761040" cy="8233200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3026,9 +3023,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3038,7 +3035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8233920"/>
+          <a:ext cx="9761040" cy="8233200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3071,9 +3068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3083,7 +3080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8233920"/>
+          <a:ext cx="9761040" cy="8233200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3116,9 +3113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3128,7 +3125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8233920"/>
+          <a:ext cx="9761040" cy="8233200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3161,9 +3158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3173,7 +3170,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8233920"/>
+          <a:ext cx="9761040" cy="8233200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3211,9 +3208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3223,7 +3220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6654960"/>
+          <a:ext cx="9761040" cy="6654240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3261,9 +3258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3273,7 +3270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="7069680"/>
+          <a:ext cx="9761040" cy="7068960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3306,9 +3303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3318,7 +3315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="7069680"/>
+          <a:ext cx="9761040" cy="7068960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3356,9 +3353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3368,7 +3365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="3022560"/>
+          <a:ext cx="9761040" cy="3021840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3401,9 +3398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3413,7 +3410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="3022560"/>
+          <a:ext cx="9761040" cy="3021840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3446,9 +3443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3458,7 +3455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="3022560"/>
+          <a:ext cx="9761040" cy="3021840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3491,9 +3488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3503,7 +3500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="3022560"/>
+          <a:ext cx="9761040" cy="3021840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3541,9 +3538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3553,7 +3550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="4868640"/>
+          <a:ext cx="9761040" cy="4867920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3591,9 +3588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3603,7 +3600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="4220280"/>
+          <a:ext cx="9761040" cy="4219560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3636,9 +3633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3648,7 +3645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="4220280"/>
+          <a:ext cx="9761040" cy="4219560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3686,9 +3683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3698,7 +3695,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8385840"/>
+          <a:ext cx="9761040" cy="8385120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3731,9 +3728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3743,7 +3740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8385840"/>
+          <a:ext cx="9761040" cy="8385120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3776,9 +3773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3788,7 +3785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8385840"/>
+          <a:ext cx="9761040" cy="8385120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3821,9 +3818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3833,7 +3830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8385840"/>
+          <a:ext cx="9761040" cy="8385120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3871,9 +3868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3883,7 +3880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="5517360"/>
+          <a:ext cx="9761040" cy="5516640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3921,9 +3918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3933,7 +3930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035720" cy="3579480"/>
+          <a:ext cx="10035000" cy="3578760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3966,9 +3963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3978,7 +3975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035720" cy="3579480"/>
+          <a:ext cx="10035000" cy="3578760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4011,9 +4008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4023,7 +4020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035720" cy="3579480"/>
+          <a:ext cx="10035000" cy="3578760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4061,9 +4058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4073,7 +4070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6495480"/>
+          <a:ext cx="9761040" cy="6494760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4106,9 +4103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4118,7 +4115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6495480"/>
+          <a:ext cx="9761040" cy="6494760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4156,9 +4153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4801320</xdr:colOff>
+      <xdr:colOff>4800600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4168,7 +4165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762480" cy="8101080"/>
+          <a:ext cx="9761760" cy="8100360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4201,9 +4198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4801320</xdr:colOff>
+      <xdr:colOff>4800600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4213,7 +4210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762480" cy="8101080"/>
+          <a:ext cx="9761760" cy="8100360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4246,9 +4243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4801320</xdr:colOff>
+      <xdr:colOff>4800600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4258,7 +4255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762480" cy="8101080"/>
+          <a:ext cx="9761760" cy="8100360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4296,9 +4293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4308,7 +4305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042920" cy="8153640"/>
+          <a:ext cx="10042200" cy="8152920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4341,9 +4338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4353,7 +4350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042920" cy="8153640"/>
+          <a:ext cx="10042200" cy="8152920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4386,9 +4383,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4398,7 +4395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042920" cy="8153640"/>
+          <a:ext cx="10042200" cy="8152920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4436,9 +4433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4448,7 +4445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="3171600"/>
+          <a:ext cx="9761400" cy="3170880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4481,9 +4478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4493,7 +4490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="3171600"/>
+          <a:ext cx="9761400" cy="3170880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4526,9 +4523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4538,7 +4535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="3171600"/>
+          <a:ext cx="9761400" cy="3170880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4576,9 +4573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4588,7 +4585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="2520720"/>
+          <a:ext cx="9761400" cy="2520000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4621,9 +4618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4633,7 +4630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="2520720"/>
+          <a:ext cx="9761400" cy="2520000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4666,9 +4663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4678,7 +4675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9762120" cy="2520720"/>
+          <a:ext cx="9761400" cy="2520000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4716,9 +4713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4728,7 +4725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="6008040"/>
+          <a:ext cx="9761040" cy="6007320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4766,9 +4763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4778,7 +4775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="3570840"/>
+          <a:ext cx="9761040" cy="3570120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4891,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,7 +4896,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,7 +4904,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,7 +4912,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,7 +4928,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,7 +4936,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,23 +4944,23 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5026,7 +5023,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,7 +5031,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,7 +5039,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,7 +5047,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,20 +5055,20 @@
         <v>84</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5080,18 +5077,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,7 +5096,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5138,7 +5135,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,7 +5143,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,7 +5151,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5159,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,20 +5167,20 @@
         <v>84</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -5191,18 +5188,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5210,7 +5207,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5249,7 +5246,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,7 +5262,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,7 +5270,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5281,20 +5278,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5303,18 +5300,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5322,7 +5319,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5343,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5361,7 +5358,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5369,7 +5366,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,7 +5374,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,7 +5382,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5401,7 +5398,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,7 +5406,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,7 +5414,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,23 +5422,23 @@
         <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,7 +5459,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>15</v>
@@ -5504,7 +5501,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +5509,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5517,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,7 +5525,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,7 +5533,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5541,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5549,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,7 +5557,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,23 +5565,23 @@
         <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,7 +5644,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5655,7 +5652,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5663,7 +5660,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,7 +5668,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,7 +5676,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5687,7 +5684,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,7 +5692,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5703,7 +5700,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5711,23 +5708,23 @@
         <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,7 +5753,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>10</v>
@@ -5806,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +5819,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,7 +5827,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,20 +5835,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5860,18 +5857,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,7 +5876,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5918,7 +5915,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,7 +5923,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5934,7 +5931,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5942,7 +5939,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,20 +5947,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -5972,18 +5969,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,7 +5988,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6030,7 +6027,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,7 +6035,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6046,7 +6043,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6054,7 +6051,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,20 +6059,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -6084,18 +6081,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,7 +6100,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6550,8 +6547,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6566,7 +6563,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,7 +6571,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6582,7 +6579,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +6587,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6606,7 +6603,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,7 +6611,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,7 +6619,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,18 +6632,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6694,7 +6691,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6709,7 +6706,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6717,7 +6714,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,7 +6722,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +6730,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,7 +6738,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,7 +6746,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,7 +6754,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6765,23 +6762,23 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,7 +6818,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6836,7 +6833,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,7 +6841,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,7 +6849,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,7 +6857,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,7 +6865,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6876,7 +6873,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,7 +6881,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6892,23 +6889,23 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,7 +6968,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,7 +6976,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,7 +6984,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6995,7 +6992,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,20 +7000,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7025,18 +7022,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7044,7 +7041,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7083,7 +7080,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7091,7 +7088,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,7 +7096,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7107,7 +7104,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,20 +7112,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7137,18 +7134,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7156,7 +7153,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +7192,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,7 +7200,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7211,7 +7208,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7219,7 +7216,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7227,20 +7224,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7249,18 +7246,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,7 +7265,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7291,8 +7288,8 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7307,7 +7304,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7315,7 +7312,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,7 +7320,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,7 +7328,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7339,7 +7336,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7347,7 +7344,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,7 +7352,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,7 +7360,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7371,31 +7368,31 @@
         <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,7 +7429,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.5</v>
@@ -7448,7 +7445,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -7464,7 +7461,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1000</v>
@@ -7507,7 +7504,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7515,7 +7512,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7523,7 +7520,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7531,7 +7528,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7547,7 +7544,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,7 +7552,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,7 +7560,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,44 +7568,44 @@
         <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.275</v>
@@ -7667,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,7 +7672,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7683,7 +7680,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7691,7 +7688,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7699,7 +7696,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7707,7 +7704,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,7 +7712,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7723,7 +7720,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,44 +7728,44 @@
         <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>34</v>
@@ -7827,7 +7824,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7835,7 +7832,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,7 +7840,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,7 +7848,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7859,20 +7856,20 @@
         <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -7881,18 +7878,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7900,7 +7897,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7924,7 +7921,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8066,7 +8063,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8074,7 +8071,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8082,7 +8079,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8090,7 +8087,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8098,20 +8095,20 @@
         <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8120,18 +8117,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8139,7 +8136,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8178,7 +8175,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8186,7 +8183,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8194,7 +8191,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,7 +8199,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8210,20 +8207,20 @@
         <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -8232,18 +8229,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8251,7 +8248,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8290,7 +8287,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,7 +8295,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8306,7 +8303,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,7 +8316,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8327,71 +8324,71 @@
         <v>91</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -8429,7 +8426,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8437,7 +8434,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,7 +8442,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,7 +8450,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8461,7 +8458,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,39 +8471,39 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -8514,15 +8511,15 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>40</v>
@@ -8563,7 +8560,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8571,7 +8568,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8579,7 +8576,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8587,7 +8584,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8595,7 +8592,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8608,20 +8605,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -8629,10 +8626,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8670,7 +8667,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8678,7 +8675,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8686,7 +8683,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8694,7 +8691,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8702,7 +8699,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8715,20 +8712,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -8736,10 +8733,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +8774,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8785,7 +8782,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8793,7 +8790,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8801,7 +8798,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8809,7 +8806,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8822,20 +8819,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -8843,10 +8840,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8884,7 +8881,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8892,7 +8889,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8900,7 +8897,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8908,7 +8905,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8916,7 +8913,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,20 +8926,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1083474</v>
@@ -8950,10 +8947,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8991,7 +8988,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8999,7 +8996,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,7 +9004,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9015,7 +9012,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9023,7 +9020,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9036,20 +9033,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -9057,18 +9054,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9106,7 +9103,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9114,7 +9111,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9122,7 +9119,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9130,7 +9127,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9138,7 +9135,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9151,20 +9148,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.097862</v>
@@ -9172,18 +9169,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9206,7 +9203,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9348,7 +9345,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9356,7 +9353,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9364,7 +9361,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9372,7 +9369,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9380,7 +9377,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,20 +9390,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.0977466</v>
@@ -9414,18 +9411,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9463,7 +9460,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,7 +9468,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9479,7 +9476,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9487,7 +9484,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9495,7 +9492,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9508,20 +9505,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -9529,18 +9526,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9578,7 +9575,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9586,7 +9583,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9594,7 +9591,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9602,7 +9599,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9610,7 +9607,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,20 +9620,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -9644,18 +9641,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9693,7 +9690,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,7 +9698,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9709,7 +9706,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,7 +9714,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9725,7 +9722,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9738,20 +9735,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -9759,18 +9756,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9808,7 +9805,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9816,7 +9813,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9824,7 +9821,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9832,7 +9829,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9840,7 +9837,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9853,20 +9850,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -9874,18 +9871,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9923,7 +9920,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9931,7 +9928,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9939,7 +9936,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9947,7 +9944,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9955,7 +9952,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9968,20 +9965,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1199538</v>
@@ -9989,26 +9986,26 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>446</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -10046,7 +10043,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10054,7 +10051,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10062,7 +10059,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10070,7 +10067,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10078,7 +10075,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,20 +10088,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1199538</v>
@@ -10112,18 +10109,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -10161,7 +10158,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,7 +10166,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10177,7 +10174,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10185,7 +10182,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10193,7 +10190,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10206,20 +10203,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1083474</v>
@@ -10227,18 +10224,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -10276,7 +10273,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10284,7 +10281,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10292,7 +10289,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10300,7 +10297,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10308,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10321,20 +10318,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1294751</v>
@@ -10342,18 +10339,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -10391,7 +10388,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,7 +10396,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10407,7 +10404,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10415,7 +10412,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10423,7 +10420,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10436,20 +10433,20 @@
         <v>91</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.1199538</v>
@@ -10457,18 +10454,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>418</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -10491,7 +10488,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10620,7 +10617,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10645,7 +10642,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10653,7 +10650,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10669,7 +10666,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10677,7 +10674,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10685,7 +10682,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10693,7 +10690,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10701,7 +10698,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10752,8 +10749,8 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10768,7 +10765,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10776,7 +10773,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10784,7 +10781,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10800,7 +10797,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10816,7 +10813,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10824,7 +10821,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10840,7 +10837,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10902,15 +10899,15 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>34</v>
@@ -10918,31 +10915,31 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.3</v>
@@ -10950,23 +10947,23 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>40</v>
@@ -10974,15 +10971,15 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>17</v>
@@ -10990,15 +10987,15 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -11006,7 +11003,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">TRUE()</f>
@@ -11015,7 +11012,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -11023,7 +11020,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -11031,7 +11028,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -11039,7 +11036,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -11047,7 +11044,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -11055,7 +11052,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>300</v>
@@ -11063,7 +11060,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -11071,7 +11068,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.15</v>
@@ -11079,7 +11076,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.2</v>
@@ -11087,7 +11084,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.5</v>
@@ -11095,7 +11092,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.84</v>
@@ -11103,7 +11100,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.001</v>
@@ -11111,7 +11108,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.2</v>
@@ -11119,7 +11116,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.2</v>
@@ -11127,7 +11124,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -11135,7 +11132,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.01</v>
@@ -11143,7 +11140,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
@@ -11151,7 +11148,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.1</v>
@@ -11159,7 +11156,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.1</v>
@@ -11167,7 +11164,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
@@ -11175,7 +11172,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.01</v>
@@ -11183,7 +11180,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -11191,7 +11188,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
@@ -11199,15 +11196,15 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>40</v>
@@ -11215,42 +11212,42 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -11274,7 +11271,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11295,7 +11292,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11303,7 +11300,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11311,7 +11308,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11319,7 +11316,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11343,7 +11340,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11351,7 +11348,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11359,23 +11356,23 @@
         <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11396,7 +11393,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>12</v>
@@ -11431,7 +11428,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11446,7 +11443,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11454,7 +11451,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11462,7 +11459,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11470,7 +11467,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11486,7 +11483,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11494,7 +11491,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11502,7 +11499,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11515,18 +11512,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SCRIPT/testinfra_paperSDT.xlsx
+++ b/SCRIPT/testinfra_paperSDT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -70,7 +70,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0">
@@ -95,7 +95,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B8" authorId="0">
@@ -130,7 +130,7 @@
 <file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B12" authorId="0">
@@ -159,7 +159,7 @@
 <file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B12" authorId="0">
@@ -184,7 +184,7 @@
 <file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B12" authorId="0">
@@ -209,7 +209,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B10" authorId="0">
@@ -1873,9 +1873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>475560</xdr:colOff>
+      <xdr:colOff>474480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1885,7 +1885,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10009440" cy="9486000"/>
+          <a:ext cx="10008360" cy="9484920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,9 +1923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1935,7 +1935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="8856000"/>
+          <a:ext cx="9760320" cy="8854920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1968,9 +1968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1980,7 +1980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="8856000"/>
+          <a:ext cx="9760320" cy="8854920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,9 +2013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2025,7 +2025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="8856000"/>
+          <a:ext cx="9760320" cy="8854920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2063,9 +2063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2075,7 +2075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6819120"/>
+          <a:ext cx="9759960" cy="6818760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2113,9 +2113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2125,7 +2125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6980400"/>
+          <a:ext cx="9759960" cy="6979320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2163,9 +2163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2175,7 +2175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="2194560"/>
+          <a:ext cx="9759960" cy="2193480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2213,9 +2213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2225,7 +2225,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6819840"/>
+          <a:ext cx="9759960" cy="6819480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,9 +2263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2275,7 +2275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="7144200"/>
+          <a:ext cx="9759960" cy="7143840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2313,9 +2313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2325,7 +2325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8368560"/>
+          <a:ext cx="9759960" cy="8367480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2375,7 +2375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6820200"/>
+          <a:ext cx="9759960" cy="6819840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2413,9 +2413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2425,7 +2425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6663240"/>
+          <a:ext cx="9759960" cy="6662160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2463,9 +2463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2475,7 +2475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="2383200"/>
+          <a:ext cx="9759960" cy="2382840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2508,9 +2508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2520,7 +2520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="2383200"/>
+          <a:ext cx="9759960" cy="2382840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2553,9 +2553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2565,7 +2565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="2383200"/>
+          <a:ext cx="9759960" cy="2382840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,9 +2598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2610,7 +2610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="2383200"/>
+          <a:ext cx="9759960" cy="2382840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2643,9 +2643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2655,7 +2655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="2383200"/>
+          <a:ext cx="9759960" cy="2382840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2693,9 +2693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2705,7 +2705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035000" cy="7317720"/>
+          <a:ext cx="10033920" cy="7316640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2738,9 +2738,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2750,7 +2750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035000" cy="7317720"/>
+          <a:ext cx="10033920" cy="7316640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2783,9 +2783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2795,7 +2795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035000" cy="7317720"/>
+          <a:ext cx="10033920" cy="7316640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,9 +2833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2845,7 +2845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="7306560"/>
+          <a:ext cx="9759960" cy="7305480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2883,9 +2883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2895,7 +2895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="7881840"/>
+          <a:ext cx="9759960" cy="7881480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,9 +2928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2940,7 +2940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="7881840"/>
+          <a:ext cx="9759960" cy="7881480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,9 +2978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2990,7 +2990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8233200"/>
+          <a:ext cx="9759960" cy="8232840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3023,9 +3023,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3035,7 +3035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8233200"/>
+          <a:ext cx="9759960" cy="8232840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3068,9 +3068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3080,7 +3080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8233200"/>
+          <a:ext cx="9759960" cy="8232840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3113,9 +3113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3125,7 +3125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8233200"/>
+          <a:ext cx="9759960" cy="8232840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3158,9 +3158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3170,7 +3170,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8233200"/>
+          <a:ext cx="9759960" cy="8232840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,9 +3208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3220,7 +3220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6654240"/>
+          <a:ext cx="9759960" cy="6653160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3258,9 +3258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3270,7 +3270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="7068960"/>
+          <a:ext cx="9759960" cy="7068600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3303,9 +3303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3315,7 +3315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="7068960"/>
+          <a:ext cx="9759960" cy="7068600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3353,9 +3353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3365,7 +3365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="3021840"/>
+          <a:ext cx="9759960" cy="3020760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3398,9 +3398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3410,7 +3410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="3021840"/>
+          <a:ext cx="9759960" cy="3020760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3443,9 +3443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3455,7 +3455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="3021840"/>
+          <a:ext cx="9759960" cy="3020760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3488,9 +3488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3500,7 +3500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="3021840"/>
+          <a:ext cx="9759960" cy="3020760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3538,9 +3538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3550,7 +3550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="4867920"/>
+          <a:ext cx="9759960" cy="4866840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3588,9 +3588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3600,7 +3600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="4219560"/>
+          <a:ext cx="9759960" cy="4219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3633,9 +3633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3645,7 +3645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="4219560"/>
+          <a:ext cx="9759960" cy="4219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3683,9 +3683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3695,7 +3695,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8385120"/>
+          <a:ext cx="9759960" cy="8384040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3728,9 +3728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3740,7 +3740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8385120"/>
+          <a:ext cx="9759960" cy="8384040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3773,9 +3773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3785,7 +3785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8385120"/>
+          <a:ext cx="9759960" cy="8384040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3818,9 +3818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3830,7 +3830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="8385120"/>
+          <a:ext cx="9759960" cy="8384040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3868,9 +3868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3880,7 +3880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="5516640"/>
+          <a:ext cx="9759960" cy="5515560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3918,9 +3918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3930,7 +3930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035000" cy="3578760"/>
+          <a:ext cx="10033920" cy="3577680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3963,9 +3963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3975,7 +3975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035000" cy="3578760"/>
+          <a:ext cx="10033920" cy="3577680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4008,9 +4008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4020,7 +4020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10035000" cy="3578760"/>
+          <a:ext cx="10033920" cy="3577680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4058,9 +4058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4070,7 +4070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6494760"/>
+          <a:ext cx="9759960" cy="6494400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4103,9 +4103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4115,7 +4115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6494760"/>
+          <a:ext cx="9759960" cy="6494400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,9 +4153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4165,7 +4165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8100360"/>
+          <a:ext cx="9760680" cy="8099280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4198,9 +4198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4210,7 +4210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8100360"/>
+          <a:ext cx="9760680" cy="8099280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4243,9 +4243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>4799520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4255,7 +4255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761760" cy="8100360"/>
+          <a:ext cx="9760680" cy="8099280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4293,9 +4293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4305,7 +4305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042200" cy="8152920"/>
+          <a:ext cx="10041840" cy="8151840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4338,9 +4338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4350,7 +4350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042200" cy="8152920"/>
+          <a:ext cx="10041840" cy="8151840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4383,9 +4383,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4395,7 +4395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10042200" cy="8152920"/>
+          <a:ext cx="10041840" cy="8151840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4433,9 +4433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4445,7 +4445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="3170880"/>
+          <a:ext cx="9760320" cy="3170520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4478,9 +4478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4490,7 +4490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="3170880"/>
+          <a:ext cx="9760320" cy="3170520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4523,9 +4523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4535,7 +4535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="3170880"/>
+          <a:ext cx="9760320" cy="3170520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4573,9 +4573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4585,7 +4585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="2520000"/>
+          <a:ext cx="9760320" cy="2518920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4618,9 +4618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4630,7 +4630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="2520000"/>
+          <a:ext cx="9760320" cy="2518920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4663,9 +4663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4800240</xdr:colOff>
+      <xdr:colOff>4799160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4675,7 +4675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761400" cy="2520000"/>
+          <a:ext cx="9760320" cy="2518920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4713,9 +4713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4725,7 +4725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="6007320"/>
+          <a:ext cx="9759960" cy="6006240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4763,9 +4763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4799880</xdr:colOff>
+      <xdr:colOff>4798800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4775,7 +4775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9761040" cy="3570120"/>
+          <a:ext cx="9759960" cy="3569760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4810,7 +4810,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4872,8 +4872,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5007,8 +5007,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5119,8 +5119,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5230,8 +5230,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5342,8 +5342,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5485,8 +5485,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5628,8 +5628,8 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5787,8 +5787,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5899,8 +5899,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6011,8 +6011,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6123,8 +6123,8 @@
   </sheetPr>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6547,8 +6547,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6690,8 +6690,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6817,8 +6817,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6952,8 +6952,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7064,8 +7064,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7176,8 +7176,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7288,8 +7288,8 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7488,8 +7488,8 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7648,8 +7648,8 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7808,8 +7808,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7920,8 +7920,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8047,8 +8047,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8159,8 +8159,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8271,8 +8271,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8410,8 +8410,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O23" activeCellId="0" sqref="O23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8544,8 +8544,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8651,8 +8651,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8758,8 +8758,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8865,8 +8865,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8972,8 +8972,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9087,8 +9087,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9202,8 +9202,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9329,8 +9329,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9444,8 +9444,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9559,8 +9559,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9674,8 +9674,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9789,8 +9789,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9904,8 +9904,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10027,8 +10027,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10142,8 +10142,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10257,8 +10257,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10372,8 +10372,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K33" activeCellId="0" sqref="K33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10487,8 +10487,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10616,8 +10616,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10749,8 +10749,8 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11270,8 +11270,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11427,8 +11427,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
